--- a/src/BulbassaurQT6-ETL/Perdas-Duplas-ETL-Desktop-V4/app/assets/planilhas_PLC/Contingências Duplas Analisadas.xlsx
+++ b/src/BulbassaurQT6-ETL/Perdas-Duplas-ETL-Desktop-V4/app/assets/planilhas_PLC/Contingências Duplas Analisadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526" codeName="{899C9086-67A9-5B14-2C2D-5A8001700F7D}"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onsbr.sharepoint.com/sites/soumaisons/OnsIntranetCentralArquivos/PL/19 Diretrizes para Operação/02 Revisões em Elaboração/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onsbr-my.sharepoint.com/personal/pedrovictor_veras_ons_org_br/Documents/Documentos/ESTAGIO_ONS_PVRV_2025/GitHub/Palkia-PDF-extractor/src/BulbassaurQT6-ETL/Perdas-Duplas-ETL-Desktop-V4/app/assets/planilhas_PLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFF5533-F8CF-4DFF-89BB-4B2D91C160F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{2A6DE0E3-DAB7-465B-9D6B-85A07437B3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12600" yWindow="345" windowWidth="16200" windowHeight="13665" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contingências Duplas" sheetId="1" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1875,6 +1875,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo: Cantos Arredondados 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E034FB-27E9-0C88-B86D-340F31E8575A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="428625"/>
+          <a:ext cx="1752600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" kern="1200"/>
+            <a:t>GERAR RELATORIO WORD</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2056,16 +2128,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I1048527"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -2074,7 +2146,7 @@
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="15.6">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" ht="15.95">
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2102,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="15.95">
+    <row r="3" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2116,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="15.95">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" ht="15.95">
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="15.95">
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" ht="15.95">
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.65">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -2186,7 +2258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.65">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2200,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.65">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.65">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2228,7 +2300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.65">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2242,7 +2314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.65">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2256,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.65">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.65">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2284,7 +2356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.65">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.65">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2312,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.65">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.65">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.65">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
@@ -2354,7 +2426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.65">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.65">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
@@ -2382,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.65">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
@@ -2396,7 +2468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.65">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
@@ -2410,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.65">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.65">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>28</v>
       </c>
@@ -2438,7 +2510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.65">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>28</v>
       </c>
@@ -2452,7 +2524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.65">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.65">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>28</v>
       </c>
@@ -2480,7 +2552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.65">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>28</v>
       </c>
@@ -2494,7 +2566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.65">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
@@ -2508,7 +2580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.65">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>28</v>
       </c>
@@ -2522,7 +2594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.65">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.65">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>28</v>
       </c>
@@ -2550,7 +2622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.65">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>45</v>
       </c>
@@ -2564,7 +2636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.65">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.65">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>45</v>
       </c>
@@ -2592,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.65">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -2606,7 +2678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.65">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>45</v>
       </c>
@@ -2620,7 +2692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.65">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
@@ -2634,7 +2706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.65">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.65">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>45</v>
       </c>
@@ -2662,7 +2734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.65">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
@@ -2676,7 +2748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.65">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
@@ -2690,7 +2762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.65">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -2704,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.65">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
@@ -2718,7 +2790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.65">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -2732,7 +2804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.65">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>45</v>
       </c>
@@ -2746,7 +2818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.65">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>45</v>
       </c>
@@ -2760,7 +2832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.65">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
@@ -2774,7 +2846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.65">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
@@ -2788,7 +2860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.65">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>45</v>
       </c>
@@ -2802,7 +2874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.65">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>45</v>
       </c>
@@ -2816,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.65">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>45</v>
       </c>
@@ -2830,7 +2902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.65">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>45</v>
       </c>
@@ -2844,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.65">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>45</v>
       </c>
@@ -2858,7 +2930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.65">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>45</v>
       </c>
@@ -2872,7 +2944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.65">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>45</v>
       </c>
@@ -2886,7 +2958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.65">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>45</v>
       </c>
@@ -2900,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.65">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>45</v>
       </c>
@@ -2914,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.65">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>45</v>
       </c>
@@ -2928,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.65">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>45</v>
       </c>
@@ -2942,7 +3014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.65">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>45</v>
       </c>
@@ -2956,7 +3028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.65">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>45</v>
       </c>
@@ -2970,7 +3042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>45</v>
       </c>
@@ -2984,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.65">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
@@ -2998,7 +3070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.65">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>45</v>
       </c>
@@ -3012,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.65">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +3098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.65">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>45</v>
       </c>
@@ -3040,7 +3112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.65">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>45</v>
       </c>
@@ -3054,7 +3126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.65">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
@@ -3068,7 +3140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.65">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>45</v>
       </c>
@@ -3082,7 +3154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.65">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>45</v>
       </c>
@@ -3096,7 +3168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="14.65">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>45</v>
       </c>
@@ -3110,7 +3182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="14.65">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>45</v>
       </c>
@@ -3124,7 +3196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="14.65">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>45</v>
       </c>
@@ -3138,7 +3210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="14.65">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>45</v>
       </c>
@@ -3152,7 +3224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.65">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>45</v>
       </c>
@@ -3166,7 +3238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.65">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>45</v>
       </c>
@@ -3180,7 +3252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="14.65">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>45</v>
       </c>
@@ -3194,7 +3266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="14.65">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>93</v>
       </c>
@@ -3208,7 +3280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="14.65">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>93</v>
       </c>
@@ -3222,7 +3294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="14.65">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>93</v>
       </c>
@@ -3236,7 +3308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14.65">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>93</v>
       </c>
@@ -3250,7 +3322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="14.65">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>93</v>
       </c>
@@ -3264,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="14.65">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>93</v>
       </c>
@@ -3278,7 +3350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="14.65">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
@@ -3292,7 +3364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.65">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>93</v>
       </c>
@@ -3306,7 +3378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="14.65">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>93</v>
       </c>
@@ -3320,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14.65">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>93</v>
       </c>
@@ -3334,7 +3406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.65">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>93</v>
       </c>
@@ -3348,7 +3420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.65">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>93</v>
       </c>
@@ -3362,7 +3434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.65">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -3376,7 +3448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="14.65">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
@@ -3390,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="14.65">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -3404,7 +3476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="14.65">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>93</v>
       </c>
@@ -3418,7 +3490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.65">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>93</v>
       </c>
@@ -3432,7 +3504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.65">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>93</v>
       </c>
@@ -3446,7 +3518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.65">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>93</v>
       </c>
@@ -3460,7 +3532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.65">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>93</v>
       </c>
@@ -3474,7 +3546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="14.65">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>93</v>
       </c>
@@ -3488,7 +3560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14.65">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>93</v>
       </c>
@@ -3502,7 +3574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.65">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>93</v>
       </c>
@@ -3516,7 +3588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14.65">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>93</v>
       </c>
@@ -3530,7 +3602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14.65">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>93</v>
       </c>
@@ -3544,7 +3616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14.65">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>93</v>
       </c>
@@ -3558,7 +3630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.65">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>120</v>
       </c>
@@ -3572,7 +3644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.65">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>120</v>
       </c>
@@ -3586,7 +3658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14.65">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>120</v>
       </c>
@@ -3600,7 +3672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.65">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>120</v>
       </c>
@@ -3614,7 +3686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.65">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>120</v>
       </c>
@@ -3628,7 +3700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.65">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>120</v>
       </c>
@@ -3642,7 +3714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.65">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>120</v>
       </c>
@@ -3656,7 +3728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.65">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>120</v>
       </c>
@@ -3670,7 +3742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.65">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>120</v>
       </c>
@@ -3684,7 +3756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.65">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>120</v>
       </c>
@@ -3698,7 +3770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.65">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>120</v>
       </c>
@@ -3712,7 +3784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14.65">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>120</v>
       </c>
@@ -3726,7 +3798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="14.65">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>120</v>
       </c>
@@ -3740,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="14.65">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>120</v>
       </c>
@@ -3754,7 +3826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.65">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
@@ -3768,7 +3840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="14.65">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -3782,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14.65">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>120</v>
       </c>
@@ -3796,7 +3868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="14.65">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>120</v>
       </c>
@@ -3810,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="14.65">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>120</v>
       </c>
@@ -3824,7 +3896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="14.65">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>120</v>
       </c>
@@ -3838,7 +3910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="14.65">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>120</v>
       </c>
@@ -3852,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="14.65">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>120</v>
       </c>
@@ -3866,7 +3938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="14.65">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>120</v>
       </c>
@@ -3880,7 +3952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="14.65">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>120</v>
       </c>
@@ -3894,7 +3966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.65">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>120</v>
       </c>
@@ -3908,7 +3980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.65">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>120</v>
       </c>
@@ -3922,7 +3994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="14.65">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>120</v>
       </c>
@@ -3936,7 +4008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.65">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>120</v>
       </c>
@@ -3950,7 +4022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.65">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>120</v>
       </c>
@@ -3964,7 +4036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.65">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>120</v>
       </c>
@@ -3978,7 +4050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.65">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>120</v>
       </c>
@@ -3992,7 +4064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.65">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>120</v>
       </c>
@@ -4006,7 +4078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="14.65">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>120</v>
       </c>
@@ -4020,7 +4092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="14.65">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>120</v>
       </c>
@@ -4034,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="14.65">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>120</v>
       </c>
@@ -4048,7 +4120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="14.65">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>120</v>
       </c>
@@ -4062,7 +4134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.65">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>120</v>
       </c>
@@ -4076,7 +4148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.65">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>120</v>
       </c>
@@ -4090,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.65">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>120</v>
       </c>
@@ -4104,7 +4176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.65">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>120</v>
       </c>
@@ -4118,7 +4190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.65">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>120</v>
       </c>
@@ -4132,7 +4204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.65">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>120</v>
       </c>
@@ -4146,7 +4218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.65">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>120</v>
       </c>
@@ -4160,7 +4232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.65">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>120</v>
       </c>
@@ -4174,7 +4246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.65">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>120</v>
       </c>
@@ -4188,7 +4260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.65">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>120</v>
       </c>
@@ -4202,7 +4274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="14.65">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>120</v>
       </c>
@@ -4216,7 +4288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="14.65">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>120</v>
       </c>
@@ -4230,7 +4302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="14.65">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>120</v>
       </c>
@@ -4244,7 +4316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="14.65">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>120</v>
       </c>
@@ -4258,7 +4330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="14.65">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>120</v>
       </c>
@@ -4272,7 +4344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="14.65">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>120</v>
       </c>
@@ -4286,7 +4358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="14.65">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>120</v>
       </c>
@@ -4300,7 +4372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="14.65">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>120</v>
       </c>
@@ -4314,7 +4386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="14.65">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>120</v>
       </c>
@@ -4328,7 +4400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="14.65">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>120</v>
       </c>
@@ -4342,7 +4414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="14.65">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>120</v>
       </c>
@@ -4356,7 +4428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="14.65">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>120</v>
       </c>
@@ -4370,7 +4442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="14.65">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>179</v>
       </c>
@@ -4384,7 +4456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="14.65">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>179</v>
       </c>
@@ -4398,7 +4470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="14.65">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>179</v>
       </c>
@@ -4412,7 +4484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="14.65">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>179</v>
       </c>
@@ -4426,7 +4498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="14.65">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>179</v>
       </c>
@@ -4440,7 +4512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="14.65">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>179</v>
       </c>
@@ -4454,7 +4526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="14.65">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>179</v>
       </c>
@@ -4468,7 +4540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="14.65">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>179</v>
       </c>
@@ -4482,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="14.65">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>179</v>
       </c>
@@ -4496,7 +4568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="14.65">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>179</v>
       </c>
@@ -4511,7 +4583,7 @@
       </c>
       <c r="I174" s="2"/>
     </row>
-    <row r="175" spans="1:9" ht="14.65">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>191</v>
       </c>
@@ -4525,7 +4597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="14.65">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>191</v>
       </c>
@@ -4539,7 +4611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="14.65">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>191</v>
       </c>
@@ -4553,7 +4625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="14.65">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>191</v>
       </c>
@@ -4567,7 +4639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="14.65">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>191</v>
       </c>
@@ -4581,7 +4653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.65">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>191</v>
       </c>
@@ -4595,7 +4667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="14.65">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>191</v>
       </c>
@@ -4609,7 +4681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="14.65">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>191</v>
       </c>
@@ -4623,7 +4695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="14.65">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>191</v>
       </c>
@@ -4637,7 +4709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="14.65">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>191</v>
       </c>
@@ -4651,7 +4723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="14.65">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>191</v>
       </c>
@@ -4665,7 +4737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="14.65">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>204</v>
       </c>
@@ -4680,7 +4752,7 @@
       </c>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" ht="14.65">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>204</v>
       </c>
@@ -4694,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.65">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>204</v>
       </c>
@@ -4708,7 +4780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="14.65">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>204</v>
       </c>
@@ -4722,7 +4794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="14.65">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>204</v>
       </c>
@@ -4736,7 +4808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="14.65">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>204</v>
       </c>
@@ -4750,7 +4822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="14.65">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>204</v>
       </c>
@@ -4764,7 +4836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.65">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>204</v>
       </c>
@@ -4778,7 +4850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.65">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>204</v>
       </c>
@@ -4792,7 +4864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.65">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>204</v>
       </c>
@@ -4806,7 +4878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.65">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>204</v>
       </c>
@@ -4820,7 +4892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14.65">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>204</v>
       </c>
@@ -4834,7 +4906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.65">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>204</v>
       </c>
@@ -4848,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.65">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>204</v>
       </c>
@@ -4862,7 +4934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.65">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>204</v>
       </c>
@@ -4876,7 +4948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.65">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>204</v>
       </c>
@@ -4890,7 +4962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.65">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>204</v>
       </c>
@@ -4904,7 +4976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.65">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>204</v>
       </c>
@@ -4918,7 +4990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.65">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
@@ -4932,7 +5004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.65">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
@@ -4946,7 +5018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="14.65">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -4960,7 +5032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.65">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>204</v>
       </c>
@@ -4974,7 +5046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.65">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>204</v>
       </c>
@@ -4988,7 +5060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="14.65">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>204</v>
       </c>
@@ -5002,7 +5074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.65">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>204</v>
       </c>
@@ -5016,7 +5088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.65">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>204</v>
       </c>
@@ -5030,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="14.65">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>204</v>
       </c>
@@ -5044,7 +5116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="14.65">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>204</v>
       </c>
@@ -5058,7 +5130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="14.65">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>204</v>
       </c>
@@ -5072,7 +5144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="14.65">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>204</v>
       </c>
@@ -5086,7 +5158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="14.65">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>204</v>
       </c>
@@ -5100,7 +5172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="14.65">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>204</v>
       </c>
@@ -5114,7 +5186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="14.65">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>204</v>
       </c>
@@ -5128,7 +5200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="14.65">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>204</v>
       </c>
@@ -5142,7 +5214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="14.65">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>204</v>
       </c>
@@ -5156,7 +5228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="14.65">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>204</v>
       </c>
@@ -5170,7 +5242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="14.65">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>204</v>
       </c>
@@ -5184,7 +5256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="14.65">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>204</v>
       </c>
@@ -5198,7 +5270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="14.65">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>204</v>
       </c>
@@ -5212,7 +5284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="14.65">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>204</v>
       </c>
@@ -5226,7 +5298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="14.65">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>204</v>
       </c>
@@ -5240,7 +5312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="14.65">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>204</v>
       </c>
@@ -5254,7 +5326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="14.65">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>204</v>
       </c>
@@ -5268,7 +5340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="14.65">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>204</v>
       </c>
@@ -5282,7 +5354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="14.65">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>204</v>
       </c>
@@ -5296,7 +5368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="14.65">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>204</v>
       </c>
@@ -5310,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="14.65">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>204</v>
       </c>
@@ -5324,7 +5396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="14.65">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>204</v>
       </c>
@@ -5338,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="14.65">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>204</v>
       </c>
@@ -5352,7 +5424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="14.65">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>204</v>
       </c>
@@ -5366,7 +5438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="14.65">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>204</v>
       </c>
@@ -5380,7 +5452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.65">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>204</v>
       </c>
@@ -5394,7 +5466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.65">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>204</v>
       </c>
@@ -5408,7 +5480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="14.65">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>204</v>
       </c>
@@ -5422,7 +5494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.65">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>204</v>
       </c>
@@ -5436,7 +5508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.65">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>204</v>
       </c>
@@ -5450,7 +5522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="14.65">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>204</v>
       </c>
@@ -5464,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.65">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>204</v>
       </c>
@@ -5478,7 +5550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.65">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>204</v>
       </c>
@@ -5492,7 +5564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="14.65">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>204</v>
       </c>
@@ -5506,7 +5578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.65">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>266</v>
       </c>
@@ -5520,7 +5592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.65">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>266</v>
       </c>
@@ -5534,7 +5606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="14.65">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>266</v>
       </c>
@@ -5548,7 +5620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.65">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>266</v>
       </c>
@@ -5562,7 +5634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.65">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>266</v>
       </c>
@@ -5576,7 +5648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="14.65">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>266</v>
       </c>
@@ -5590,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.65">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>266</v>
       </c>
@@ -5604,7 +5676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.65">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>266</v>
       </c>
@@ -5618,7 +5690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="14.65">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>266</v>
       </c>
@@ -5632,7 +5704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.65">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>266</v>
       </c>
@@ -5646,7 +5718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.65">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>266</v>
       </c>
@@ -5660,7 +5732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="14.65">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>266</v>
       </c>
@@ -5674,7 +5746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.65">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>266</v>
       </c>
@@ -5688,7 +5760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.65">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>266</v>
       </c>
@@ -5702,7 +5774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="14.65">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>266</v>
       </c>
@@ -5716,7 +5788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.65">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>266</v>
       </c>
@@ -5730,7 +5802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.65">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>266</v>
       </c>
@@ -5744,7 +5816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="14.65">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>266</v>
       </c>
@@ -5758,7 +5830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.65">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>266</v>
       </c>
@@ -5772,7 +5844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.65">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>266</v>
       </c>
@@ -5786,7 +5858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="14.65">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>266</v>
       </c>
@@ -5800,7 +5872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.65">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>266</v>
       </c>
@@ -5814,7 +5886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.65">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>266</v>
       </c>
@@ -5828,7 +5900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="14.65">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>266</v>
       </c>
@@ -5842,7 +5914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.65">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>266</v>
       </c>
@@ -5856,7 +5928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.65">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>266</v>
       </c>
@@ -5870,7 +5942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="14.65">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>266</v>
       </c>
@@ -5884,7 +5956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.65">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>266</v>
       </c>
@@ -5898,7 +5970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.65">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>266</v>
       </c>
@@ -5912,7 +5984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="14.65">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>266</v>
       </c>
@@ -5926,7 +5998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.65">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>266</v>
       </c>
@@ -5940,7 +6012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.65">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>266</v>
       </c>
@@ -5954,7 +6026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="14.65">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>266</v>
       </c>
@@ -5968,7 +6040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.65">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>266</v>
       </c>
@@ -5982,7 +6054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.65">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>266</v>
       </c>
@@ -5996,7 +6068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="14.65">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>266</v>
       </c>
@@ -6010,7 +6082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.65">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>266</v>
       </c>
@@ -6024,7 +6096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.65">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>266</v>
       </c>
@@ -6038,7 +6110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="14.65">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>266</v>
       </c>
@@ -6052,7 +6124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.65">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>266</v>
       </c>
@@ -6066,7 +6138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.65">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>266</v>
       </c>
@@ -6080,7 +6152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="14.65">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>266</v>
       </c>
@@ -6094,7 +6166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.65">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>266</v>
       </c>
@@ -6108,7 +6180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.65">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>266</v>
       </c>
@@ -6122,7 +6194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="14.65">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>266</v>
       </c>
@@ -6136,7 +6208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.65">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>266</v>
       </c>
@@ -6150,7 +6222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="14.65">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>266</v>
       </c>
@@ -6164,7 +6236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.65">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>266</v>
       </c>
@@ -6178,7 +6250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.65">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>266</v>
       </c>
@@ -6192,7 +6264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.65">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>266</v>
       </c>
@@ -6206,7 +6278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.65">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>266</v>
       </c>
@@ -6220,7 +6292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.65">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>266</v>
       </c>
@@ -6234,7 +6306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.65">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>266</v>
       </c>
@@ -6248,7 +6320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.65">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>266</v>
       </c>
@@ -6262,7 +6334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.65">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>266</v>
       </c>
@@ -6276,7 +6348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.65">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>266</v>
       </c>
@@ -6290,7 +6362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.65">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>324</v>
       </c>
@@ -6304,7 +6376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.65">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>324</v>
       </c>
@@ -6318,7 +6390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.65">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>324</v>
       </c>
@@ -6332,7 +6404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="14.65">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>324</v>
       </c>
@@ -6346,7 +6418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.65">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>324</v>
       </c>
@@ -6360,7 +6432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.65">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>324</v>
       </c>
@@ -6374,7 +6446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.65">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>324</v>
       </c>
@@ -6388,7 +6460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.65">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>324</v>
       </c>
@@ -6402,7 +6474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.65">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>324</v>
       </c>
@@ -6416,7 +6488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.65">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>324</v>
       </c>
@@ -6430,7 +6502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.65">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>324</v>
       </c>
@@ -6444,7 +6516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.65">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>324</v>
       </c>
@@ -6458,7 +6530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.65">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>324</v>
       </c>
@@ -6472,7 +6544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.65">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>324</v>
       </c>
@@ -6486,7 +6558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.65">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>324</v>
       </c>
@@ -6500,7 +6572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.65">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>324</v>
       </c>
@@ -6514,7 +6586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.65">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>324</v>
       </c>
@@ -6528,7 +6600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.65">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>324</v>
       </c>
@@ -6542,7 +6614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.65">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>324</v>
       </c>
@@ -6556,7 +6628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.65">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>324</v>
       </c>
@@ -6570,7 +6642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.65">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>324</v>
       </c>
@@ -6584,7 +6656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.65">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>347</v>
       </c>
@@ -6598,7 +6670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.65">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>347</v>
       </c>
@@ -6612,7 +6684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.65">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>347</v>
       </c>
@@ -6626,7 +6698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.65">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>347</v>
       </c>
@@ -6640,7 +6712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.65">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>347</v>
       </c>
@@ -6654,7 +6726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.65">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>347</v>
       </c>
@@ -6668,7 +6740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.65">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>347</v>
       </c>
@@ -6682,7 +6754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.65">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>347</v>
       </c>
@@ -6696,7 +6768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.65">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>347</v>
       </c>
@@ -6710,7 +6782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.65">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>347</v>
       </c>
@@ -6724,7 +6796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.65">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>347</v>
       </c>
@@ -6738,7 +6810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.65">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>347</v>
       </c>
@@ -6752,7 +6824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.65">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>347</v>
       </c>
@@ -6766,7 +6838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.65">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>347</v>
       </c>
@@ -6780,7 +6852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.65">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>347</v>
       </c>
@@ -6794,7 +6866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.65">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>347</v>
       </c>
@@ -6808,7 +6880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.65">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>347</v>
       </c>
@@ -6822,7 +6894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.65">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>366</v>
       </c>
@@ -6836,7 +6908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.65">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>366</v>
       </c>
@@ -6850,7 +6922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.65">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>366</v>
       </c>
@@ -6864,7 +6936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.65">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>366</v>
       </c>
@@ -6878,7 +6950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.65">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>366</v>
       </c>
@@ -6892,7 +6964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.65">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>366</v>
       </c>
@@ -6906,7 +6978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.65">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>366</v>
       </c>
@@ -6920,7 +6992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.65">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>366</v>
       </c>
@@ -6934,7 +7006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.65">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>366</v>
       </c>
@@ -6948,7 +7020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.65">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>366</v>
       </c>
@@ -6962,7 +7034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.65">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>378</v>
       </c>
@@ -6976,7 +7048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.65">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>378</v>
       </c>
@@ -6990,7 +7062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.65">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>378</v>
       </c>
@@ -7004,7 +7076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.65">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>378</v>
       </c>
@@ -7018,7 +7090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.65">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>378</v>
       </c>
@@ -7032,7 +7104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.65">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>378</v>
       </c>
@@ -7046,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.65">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>378</v>
       </c>
@@ -7060,7 +7132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.65">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>378</v>
       </c>
@@ -7074,7 +7146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.65">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>378</v>
       </c>
@@ -7088,7 +7160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.65">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>378</v>
       </c>
@@ -7102,7 +7174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.65">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>378</v>
       </c>
@@ -7116,7 +7188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.65">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>378</v>
       </c>
@@ -7130,7 +7202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.65">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>378</v>
       </c>
@@ -7144,7 +7216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.65">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>378</v>
       </c>
@@ -7158,7 +7230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.65">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>378</v>
       </c>
@@ -7172,7 +7244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.65">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>378</v>
       </c>
@@ -7186,7 +7258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.65">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>378</v>
       </c>
@@ -7200,7 +7272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.65">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>378</v>
       </c>
@@ -7214,7 +7286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.65">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>378</v>
       </c>
@@ -7228,7 +7300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.65">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>378</v>
       </c>
@@ -7242,7 +7314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.65">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>400</v>
       </c>
@@ -7256,7 +7328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.65">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>400</v>
       </c>
@@ -7270,7 +7342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.65">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>400</v>
       </c>
@@ -7284,7 +7356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.65">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>400</v>
       </c>
@@ -7298,7 +7370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.65">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>400</v>
       </c>
@@ -7312,7 +7384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="18" customHeight="1">
+    <row r="375" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>400</v>
       </c>
@@ -7326,7 +7398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.65">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>400</v>
       </c>
@@ -7340,7 +7412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1">
+    <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>400</v>
       </c>
@@ -7354,7 +7426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.65">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>400</v>
       </c>
@@ -7368,7 +7440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.65">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>400</v>
       </c>
@@ -7382,7 +7454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.65">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>400</v>
       </c>
@@ -7396,7 +7468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.65">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>400</v>
       </c>
@@ -7410,7 +7482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.65">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>400</v>
       </c>
@@ -7424,7 +7496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.65">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>400</v>
       </c>
@@ -7438,7 +7510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.65">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>400</v>
       </c>
@@ -7452,7 +7524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.65">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>400</v>
       </c>
@@ -7466,7 +7538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.65">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>400</v>
       </c>
@@ -7480,7 +7552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.65">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>400</v>
       </c>
@@ -7494,7 +7566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.65">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>400</v>
       </c>
@@ -7508,7 +7580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.65">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>400</v>
       </c>
@@ -7522,7 +7594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.65">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>400</v>
       </c>
@@ -7536,7 +7608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.65">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>400</v>
       </c>
@@ -7550,7 +7622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.65">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>400</v>
       </c>
@@ -7564,7 +7636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.65">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>400</v>
       </c>
@@ -7578,7 +7650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="29.1">
+    <row r="394" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>400</v>
       </c>
@@ -7592,7 +7664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.65">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>400</v>
       </c>
@@ -7606,7 +7678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.65">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>400</v>
       </c>
@@ -7620,7 +7692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.65">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>400</v>
       </c>
@@ -7634,7 +7706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.65">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>400</v>
       </c>
@@ -7648,7 +7720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.65">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>400</v>
       </c>
@@ -7662,7 +7734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.65">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>400</v>
       </c>
@@ -7676,7 +7748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="14.65">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>400</v>
       </c>
@@ -7690,7 +7762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="14.65">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>400</v>
       </c>
@@ -7704,7 +7776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="14.65">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>400</v>
       </c>
@@ -7718,7 +7790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="14.65">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>400</v>
       </c>
@@ -7732,7 +7804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="14.65">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>400</v>
       </c>
@@ -7746,7 +7818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="14.65">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>400</v>
       </c>
@@ -7760,7 +7832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="14.65">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>400</v>
       </c>
@@ -7774,7 +7846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="14.65">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>400</v>
       </c>
@@ -7788,7 +7860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15.75" customHeight="1">
+    <row r="409" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>441</v>
       </c>
@@ -7802,7 +7874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="15.75" customHeight="1">
+    <row r="410" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>441</v>
       </c>
@@ -7816,7 +7888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="15.75" customHeight="1">
+    <row r="411" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>441</v>
       </c>
@@ -7830,7 +7902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="15.75" customHeight="1">
+    <row r="412" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>441</v>
       </c>
@@ -7844,7 +7916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="15.75" customHeight="1">
+    <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>441</v>
       </c>
@@ -7858,7 +7930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="15.75" customHeight="1">
+    <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>441</v>
       </c>
@@ -7872,7 +7944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="15.75" customHeight="1">
+    <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>441</v>
       </c>
@@ -7886,7 +7958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="15.75" customHeight="1">
+    <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>441</v>
       </c>
@@ -7900,7 +7972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="15.75" customHeight="1">
+    <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>441</v>
       </c>
@@ -7914,7 +7986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="15.75" customHeight="1">
+    <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>441</v>
       </c>
@@ -7928,7 +8000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="15.75" customHeight="1">
+    <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>441</v>
       </c>
@@ -7942,7 +8014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="15.75" customHeight="1">
+    <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>441</v>
       </c>
@@ -7956,7 +8028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="15.75" customHeight="1">
+    <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>441</v>
       </c>
@@ -7970,7 +8042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="15.75" customHeight="1">
+    <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>441</v>
       </c>
@@ -7984,7 +8056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="15.75" customHeight="1">
+    <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>441</v>
       </c>
@@ -7998,7 +8070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="15.75" customHeight="1">
+    <row r="424" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>441</v>
       </c>
@@ -8012,7 +8084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="15.75" customHeight="1">
+    <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>441</v>
       </c>
@@ -8026,7 +8098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="15.75" customHeight="1">
+    <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>441</v>
       </c>
@@ -8040,7 +8112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="15.75" customHeight="1">
+    <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>441</v>
       </c>
@@ -8054,7 +8126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="15.75" customHeight="1">
+    <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>441</v>
       </c>
@@ -8068,7 +8140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="15.75" customHeight="1">
+    <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>441</v>
       </c>
@@ -8082,7 +8154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="15.75" customHeight="1">
+    <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>441</v>
       </c>
@@ -8096,7 +8168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="15.75" customHeight="1">
+    <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>441</v>
       </c>
@@ -8110,7 +8182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="15.75" customHeight="1">
+    <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>441</v>
       </c>
@@ -8124,7 +8196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="15.75" customHeight="1">
+    <row r="433" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>441</v>
       </c>
@@ -8138,7 +8210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="15.75" customHeight="1">
+    <row r="434" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>441</v>
       </c>
@@ -8152,7 +8224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="15.75" customHeight="1">
+    <row r="435" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>441</v>
       </c>
@@ -8166,7 +8238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="15.75" customHeight="1">
+    <row r="436" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>441</v>
       </c>
@@ -8180,7 +8252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="15.75" customHeight="1">
+    <row r="437" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>441</v>
       </c>
@@ -8194,7 +8266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="15.75" customHeight="1">
+    <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>441</v>
       </c>
@@ -8208,7 +8280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="15.75" customHeight="1">
+    <row r="439" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>441</v>
       </c>
@@ -8222,7 +8294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="15.75" customHeight="1">
+    <row r="440" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>441</v>
       </c>
@@ -8236,7 +8308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="15.75" customHeight="1">
+    <row r="441" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>441</v>
       </c>
@@ -8250,7 +8322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="15.75" customHeight="1">
+    <row r="442" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>441</v>
       </c>
@@ -8264,7 +8336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="15.75" customHeight="1">
+    <row r="443" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>441</v>
       </c>
@@ -8278,7 +8350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="15.75" customHeight="1">
+    <row r="444" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>441</v>
       </c>
@@ -8292,7 +8364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="15.75" customHeight="1">
+    <row r="445" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>441</v>
       </c>
@@ -8306,7 +8378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="15.75" customHeight="1">
+    <row r="446" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>441</v>
       </c>
@@ -8320,7 +8392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="15.75" customHeight="1">
+    <row r="447" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>441</v>
       </c>
@@ -8334,7 +8406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="15.75" customHeight="1">
+    <row r="448" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>441</v>
       </c>
@@ -8348,7 +8420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="15.75" customHeight="1">
+    <row r="449" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>441</v>
       </c>
@@ -8362,7 +8434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="15.75" customHeight="1">
+    <row r="450" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>441</v>
       </c>
@@ -8376,7 +8448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="15.75" customHeight="1">
+    <row r="451" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>441</v>
       </c>
@@ -8390,7 +8462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="15.75" customHeight="1">
+    <row r="452" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>441</v>
       </c>
@@ -8404,7 +8476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="15.75" customHeight="1">
+    <row r="453" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>441</v>
       </c>
@@ -8418,7 +8490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="15.75" customHeight="1">
+    <row r="454" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>441</v>
       </c>
@@ -8432,7 +8504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="15.75" customHeight="1">
+    <row r="455" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>441</v>
       </c>
@@ -8446,7 +8518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="15.75" customHeight="1">
+    <row r="456" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>441</v>
       </c>
@@ -8460,7 +8532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="15.75" customHeight="1">
+    <row r="457" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>441</v>
       </c>
@@ -8474,7 +8546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="15.75" customHeight="1">
+    <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>441</v>
       </c>
@@ -8488,7 +8560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="15.75" customHeight="1">
+    <row r="459" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>441</v>
       </c>
@@ -8502,7 +8574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="15.75" customHeight="1">
+    <row r="460" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>441</v>
       </c>
@@ -8516,7 +8588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="14.65">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>495</v>
       </c>
@@ -8530,7 +8602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="14.65">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>495</v>
       </c>
@@ -8544,7 +8616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="14.65">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>495</v>
       </c>
@@ -8558,7 +8630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="14.65">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>495</v>
       </c>
@@ -8572,7 +8644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="14.65">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>495</v>
       </c>
@@ -8586,7 +8658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="14.65">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>495</v>
       </c>
@@ -8600,7 +8672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="14.65">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>495</v>
       </c>
@@ -8614,7 +8686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="14.65">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>495</v>
       </c>
@@ -8628,7 +8700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="14.65">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>495</v>
       </c>
@@ -8642,7 +8714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="14.65">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>495</v>
       </c>
@@ -8656,7 +8728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="14.65">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>495</v>
       </c>
@@ -8670,7 +8742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="14.65">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>495</v>
       </c>
@@ -8684,7 +8756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="14.65">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>495</v>
       </c>
@@ -8698,7 +8770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="14.65">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>495</v>
       </c>
@@ -8712,7 +8784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="14.65">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>495</v>
       </c>
@@ -8726,7 +8798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="14.65">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>495</v>
       </c>
@@ -8740,7 +8812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="14.65">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>495</v>
       </c>
@@ -8754,7 +8826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="14.65">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>495</v>
       </c>
@@ -8768,7 +8840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="14.65">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>495</v>
       </c>
@@ -8782,7 +8854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="14.65">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>495</v>
       </c>
@@ -8796,7 +8868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="14.65">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>495</v>
       </c>
@@ -8810,7 +8882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="14.65">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>495</v>
       </c>
@@ -8824,7 +8896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="14.65">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>495</v>
       </c>
@@ -8838,7 +8910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="14.65">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>520</v>
       </c>
@@ -8852,7 +8924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="14.65">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>520</v>
       </c>
@@ -8866,7 +8938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="14.65">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>520</v>
       </c>
@@ -8880,7 +8952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="14.65">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>520</v>
       </c>
@@ -8894,7 +8966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="14.65">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>520</v>
       </c>
@@ -8908,7 +8980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="14.65">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>520</v>
       </c>
@@ -8922,7 +8994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="14.65">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>520</v>
       </c>
@@ -8936,7 +9008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="14.65">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>520</v>
       </c>
@@ -8950,7 +9022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="14.65">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>520</v>
       </c>
@@ -8964,7 +9036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="14.65">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>520</v>
       </c>
@@ -8978,7 +9050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="14.65">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>520</v>
       </c>
@@ -8992,7 +9064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="14.65">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>520</v>
       </c>
@@ -9006,7 +9078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="14.65">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>520</v>
       </c>
@@ -9020,7 +9092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="14.65">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>520</v>
       </c>
@@ -9034,7 +9106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="14.65">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>520</v>
       </c>
@@ -9048,7 +9120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="14.65">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>520</v>
       </c>
@@ -9062,7 +9134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="14.65">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>538</v>
       </c>
@@ -9076,7 +9148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="14.65">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>538</v>
       </c>
@@ -9090,7 +9162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="14.65">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>538</v>
       </c>
@@ -9104,7 +9176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="14.65">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>538</v>
       </c>
@@ -9118,7 +9190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="14.65">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>538</v>
       </c>
@@ -9132,7 +9204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="14.65">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>538</v>
       </c>
@@ -9146,7 +9218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="14.65">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>538</v>
       </c>
@@ -9160,7 +9232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="14.65">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>538</v>
       </c>
@@ -9174,7 +9246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="14.65">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>538</v>
       </c>
@@ -9188,7 +9260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="14.65">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>538</v>
       </c>
@@ -9202,7 +9274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="14.65">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>538</v>
       </c>
@@ -9216,7 +9288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="14.65">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>538</v>
       </c>
@@ -9230,7 +9302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="14.65">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>538</v>
       </c>
@@ -9244,7 +9316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="14.65">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>538</v>
       </c>
@@ -9258,7 +9330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="14.65">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>538</v>
       </c>
@@ -9272,119 +9344,124 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="15" customHeight="1">
+    <row r="516" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
     </row>
-    <row r="518" spans="1:4" ht="15" customHeight="1">
+    <row r="518" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
     </row>
-    <row r="1048501" ht="14.45"/>
-    <row r="1048502" ht="14.45"/>
-    <row r="1048503" ht="14.45"/>
-    <row r="1048504" ht="14.45"/>
-    <row r="1048505" ht="14.45"/>
-    <row r="1048506" ht="14.45"/>
-    <row r="1048507" ht="14.45"/>
-    <row r="1048508" ht="14.45"/>
-    <row r="1048509" ht="14.45"/>
-    <row r="1048510" ht="14.45"/>
-    <row r="1048511" ht="14.45"/>
-    <row r="1048512" ht="14.45"/>
-    <row r="1048513" ht="14.45"/>
-    <row r="1048514" ht="14.45"/>
-    <row r="1048515" ht="14.45"/>
-    <row r="1048516" ht="14.45"/>
-    <row r="1048517" ht="14.45"/>
-    <row r="1048518" ht="14.45"/>
-    <row r="1048519" ht="14.45"/>
-    <row r="1048520" ht="14.45"/>
-    <row r="1048521" ht="14.45"/>
-    <row r="1048522" ht="14.45"/>
-    <row r="1048523" ht="14.45"/>
-    <row r="1048524" ht="14.45"/>
-    <row r="1048525" ht="14.45"/>
-    <row r="1048526" ht="14.45"/>
-    <row r="1048527" ht="14.45"/>
+    <row r="1048501" x14ac:dyDescent="0.25"/>
+    <row r="1048502" x14ac:dyDescent="0.25"/>
+    <row r="1048503" x14ac:dyDescent="0.25"/>
+    <row r="1048504" x14ac:dyDescent="0.25"/>
+    <row r="1048505" x14ac:dyDescent="0.25"/>
+    <row r="1048506" x14ac:dyDescent="0.25"/>
+    <row r="1048507" x14ac:dyDescent="0.25"/>
+    <row r="1048508" x14ac:dyDescent="0.25"/>
+    <row r="1048509" x14ac:dyDescent="0.25"/>
+    <row r="1048510" x14ac:dyDescent="0.25"/>
+    <row r="1048511" x14ac:dyDescent="0.25"/>
+    <row r="1048512" x14ac:dyDescent="0.25"/>
+    <row r="1048513" x14ac:dyDescent="0.25"/>
+    <row r="1048514" x14ac:dyDescent="0.25"/>
+    <row r="1048515" x14ac:dyDescent="0.25"/>
+    <row r="1048516" x14ac:dyDescent="0.25"/>
+    <row r="1048517" x14ac:dyDescent="0.25"/>
+    <row r="1048518" x14ac:dyDescent="0.25"/>
+    <row r="1048519" x14ac:dyDescent="0.25"/>
+    <row r="1048520" x14ac:dyDescent="0.25"/>
+    <row r="1048521" x14ac:dyDescent="0.25"/>
+    <row r="1048522" x14ac:dyDescent="0.25"/>
+    <row r="1048523" x14ac:dyDescent="0.25"/>
+    <row r="1048524" x14ac:dyDescent="0.25"/>
+    <row r="1048525" x14ac:dyDescent="0.25"/>
+    <row r="1048526" x14ac:dyDescent="0.25"/>
+    <row r="1048527" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:D514" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CD2FB5-B06C-4356-A87D-11B53340E339}">
-  <dimension ref="A1:A15"/>
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30.75">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45.75">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30.75">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15"/>
-    <row r="11" spans="1:1" ht="15"/>
-    <row r="12" spans="1:1" ht="15"/>
-    <row r="13" spans="1:1" ht="15"/>
-    <row r="14" spans="1:1" ht="15"/>
-    <row r="15" spans="1:1" ht="15"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Intranet - Central de Arquivos" ma:contentTypeID="0x01010018159D4407E2B949941F28DD4E6C73B100D40ED7C3B8895F4E80C7BCDAA410D192" ma:contentTypeVersion="35" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="c461dbb6c64ca3c481f8f9b21135558c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7481862d-7221-4d4e-aaee-e9305d49a4b4" xmlns:ns3="f5de6b4b-50fe-42de-9160-f73f9aac4bd7" xmlns:ns4="cc97d4cb-9ef9-4c16-9302-76dc037215e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d58aad1f5e830b5de3c4a6e013649c4c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="7481862d-7221-4d4e-aaee-e9305d49a4b4"/>
@@ -9695,15 +9772,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9721,13 +9789,41 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8DABFD3-71BB-4B8F-906F-2269F6D20A9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90025C13-FE24-4472-823F-52594E4521D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90025C13-FE24-4472-823F-52594E4521D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8DABFD3-71BB-4B8F-906F-2269F6D20A9E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7481862d-7221-4d4e-aaee-e9305d49a4b4"/>
+    <ds:schemaRef ds:uri="f5de6b4b-50fe-42de-9160-f73f9aac4bd7"/>
+    <ds:schemaRef ds:uri="cc97d4cb-9ef9-4c16-9302-76dc037215e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF2ACE4-B7D4-405E-A755-A6B566F6D921}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FF2ACE4-B7D4-405E-A755-A6B566F6D921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f5de6b4b-50fe-42de-9160-f73f9aac4bd7"/>
+    <ds:schemaRef ds:uri="7481862d-7221-4d4e-aaee-e9305d49a4b4"/>
+    <ds:schemaRef ds:uri="cc97d4cb-9ef9-4c16-9302-76dc037215e5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>